--- a/navidi/Exercises.xlsx
+++ b/navidi/Exercises.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\_Work\Statistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Others\Statistics\navidi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0529ABD5-5081-47A6-BADF-C075383A1714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74397B4-1334-4235-95F3-554A071B448C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4680" yWindow="1460" windowWidth="38400" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="51420" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercises" sheetId="1" r:id="rId1"/>
     <sheet name="Normal" sheetId="5" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1224,7 +1224,7 @@
   <dimension ref="A1:AO83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="O69" sqref="O69"/>
+      <selection activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3545,13 +3545,13 @@
       <c r="D72" s="1">
         <v>2</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72" s="4">
         <v>3</v>
       </c>
       <c r="F72" s="1">
         <v>4</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G72" s="4">
         <v>5</v>
       </c>
       <c r="H72" s="1">

--- a/navidi/Exercises.xlsx
+++ b/navidi/Exercises.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Others\Statistics\navidi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\_Work\Statistics\navidi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74397B4-1334-4235-95F3-554A071B448C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FB9BAD-A554-4918-BAB2-2866E25D7C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="51420" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1460" windowWidth="38400" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercises" sheetId="1" r:id="rId1"/>
@@ -956,6 +956,2894 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$69:$D$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$69:$F$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>3.1671241833119857E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3262907903552504E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3498980316300933E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2096653257761331E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2750131948179191E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6807201268858057E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15865525393145699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.30853753872598688</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69146246127401312</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84134474606854304</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.93319279873114191</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97724986805182079</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99379033467422384</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9986501019683699</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99976737092096446</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99996832875816688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E9E-4139-BC8F-4789F9118DD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$47:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$47:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4E9E-4139-BC8F-4789F9118DD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1084099424"/>
+        <c:axId val="1084099840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1084099424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1084099840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1084099840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1084099424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$47:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$47:$G$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.4368968689107988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9511989745839182</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0488010254160818</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5631031310892016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DC58-43AE-8E50-71C4AA424636}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="825268640"/>
+        <c:axId val="825270304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="825268640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="825270304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="825270304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="825268640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$47:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$47:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E12-4F1A-B4CF-2F3AF3F7BB64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="827666976"/>
+        <c:axId val="807186832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="827666976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="807186832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="807186832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="827666976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>473075</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91F90F2D-AF80-4147-B1AC-F3801163FE47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>574675</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE36825A-AF2B-4394-9FCC-6C2D3716E4ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>320675</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73AF31FF-9C1C-4D61-81D4-54CFDB521F30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1223,8 +4111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K72" sqref="K72"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3563,7 +6451,7 @@
       <c r="J72" s="1">
         <v>8</v>
       </c>
-      <c r="K72" s="1">
+      <c r="K72" s="4">
         <v>9</v>
       </c>
       <c r="L72" s="1">
@@ -7311,10 +10199,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B642E4E-4CEB-4761-98FC-68FA36484AD6}">
-  <dimension ref="B3:S43"/>
+  <dimension ref="B3:S85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7322,8 +10210,8 @@
     <col min="1" max="1" width="8.7265625" style="6"/>
     <col min="2" max="2" width="14.453125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.7265625" style="6"/>
-    <col min="7" max="8" width="11.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7265625" style="6"/>
+    <col min="6" max="8" width="11.81640625" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
@@ -7604,7 +10492,7 @@
         <v>33.333333333333336</v>
       </c>
     </row>
-    <row r="35" spans="5:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:19" x14ac:dyDescent="0.35">
       <c r="N35" s="6" t="s">
         <v>262</v>
       </c>
@@ -7612,7 +10500,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="5:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:19" x14ac:dyDescent="0.35">
       <c r="N36" s="6">
         <v>2.25</v>
       </c>
@@ -7631,19 +10519,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="5:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:19" x14ac:dyDescent="0.35">
       <c r="K37" s="6">
         <f>1/2.25</f>
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="39" spans="5:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:19" x14ac:dyDescent="0.35">
       <c r="O39" s="6">
         <f>(LN(2)^(1/N36))/O36</f>
         <v>1899.1522427156201</v>
       </c>
     </row>
-    <row r="40" spans="5:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:19" x14ac:dyDescent="0.35">
       <c r="E40" s="6" t="s">
         <v>262</v>
       </c>
@@ -7660,7 +10548,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="41" spans="5:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:19" x14ac:dyDescent="0.35">
       <c r="E41" s="6">
         <v>2.25</v>
       </c>
@@ -7679,7 +10567,7 @@
         <v>0.84899115431675398</v>
       </c>
     </row>
-    <row r="43" spans="5:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:19" x14ac:dyDescent="0.35">
       <c r="G43" s="6">
         <v>2000</v>
       </c>
@@ -7696,8 +10584,362 @@
         <v>8.7606426801976531E-4</v>
       </c>
     </row>
+    <row r="45" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="F45" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C47" s="6">
+        <v>1</v>
+      </c>
+      <c r="D47" s="6">
+        <f>(C47-$F$45)/5</f>
+        <v>0.1</v>
+      </c>
+      <c r="E47" s="6">
+        <v>3.01</v>
+      </c>
+      <c r="F47" s="6">
+        <f>_xlfn.NORM.S.INV(D47)</f>
+        <v>-1.2815515655446006</v>
+      </c>
+      <c r="G47" s="6">
+        <f>F47*$G$66+$G$65</f>
+        <v>2.4368968689107988</v>
+      </c>
+    </row>
+    <row r="48" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C48" s="6">
+        <v>2</v>
+      </c>
+      <c r="D48" s="6">
+        <f t="shared" ref="D48:D51" si="0">(C48-$F$45)/5</f>
+        <v>0.3</v>
+      </c>
+      <c r="E48" s="6">
+        <v>3.35</v>
+      </c>
+      <c r="F48" s="6">
+        <f t="shared" ref="F48:F51" si="1">_xlfn.NORM.S.INV(D48)</f>
+        <v>-0.52440051270804089</v>
+      </c>
+      <c r="G48" s="6">
+        <f t="shared" ref="G48:G51" si="2">F48*$G$66+$G$65</f>
+        <v>3.9511989745839182</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C49" s="6">
+        <v>3</v>
+      </c>
+      <c r="D49" s="6">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E49" s="6">
+        <v>4.79</v>
+      </c>
+      <c r="F49" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C50" s="6">
+        <v>4</v>
+      </c>
+      <c r="D50" s="6">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="E50" s="6">
+        <v>5.96</v>
+      </c>
+      <c r="F50" s="6">
+        <f t="shared" si="1"/>
+        <v>0.52440051270804078</v>
+      </c>
+      <c r="G50" s="6">
+        <f t="shared" si="2"/>
+        <v>6.0488010254160818</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C51" s="6">
+        <v>5</v>
+      </c>
+      <c r="D51" s="6">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="E51" s="6">
+        <v>7.89</v>
+      </c>
+      <c r="F51" s="6">
+        <f t="shared" si="1"/>
+        <v>1.2815515655446006</v>
+      </c>
+      <c r="G51" s="6">
+        <f t="shared" si="2"/>
+        <v>7.5631031310892016</v>
+      </c>
+    </row>
+    <row r="65" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="G65" s="6">
+        <f>AVERAGE(E47:E51)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="G66" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D69" s="6">
+        <v>-3</v>
+      </c>
+      <c r="E69" s="6">
+        <f>(D69-$G$65)/$G$66</f>
+        <v>-4</v>
+      </c>
+      <c r="F69" s="6">
+        <f>_xlfn.NORM.S.DIST(E69,TRUE)</f>
+        <v>3.1671241833119857E-5</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D70" s="6">
+        <f>D69+1</f>
+        <v>-2</v>
+      </c>
+      <c r="E70" s="6">
+        <f t="shared" ref="E70:E85" si="3">(D70-$G$65)/$G$66</f>
+        <v>-3.5</v>
+      </c>
+      <c r="F70" s="6">
+        <f t="shared" ref="F70:F85" si="4">_xlfn.NORM.S.DIST(E70,TRUE)</f>
+        <v>2.3262907903552504E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D71" s="6">
+        <f>D70+1</f>
+        <v>-1</v>
+      </c>
+      <c r="E71" s="6">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="F71" s="6">
+        <f t="shared" si="4"/>
+        <v>1.3498980316300933E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D72" s="6">
+        <f>D71+1</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="6">
+        <f t="shared" si="3"/>
+        <v>-2.5</v>
+      </c>
+      <c r="F72" s="6">
+        <f t="shared" si="4"/>
+        <v>6.2096653257761331E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D73" s="6">
+        <f>D72+1</f>
+        <v>1</v>
+      </c>
+      <c r="E73" s="6">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="F73" s="6">
+        <f t="shared" si="4"/>
+        <v>2.2750131948179191E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D74" s="6">
+        <f>D73+1</f>
+        <v>2</v>
+      </c>
+      <c r="E74" s="6">
+        <f t="shared" si="3"/>
+        <v>-1.5</v>
+      </c>
+      <c r="F74" s="6">
+        <f t="shared" si="4"/>
+        <v>6.6807201268858057E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D75" s="6">
+        <f>D74+1</f>
+        <v>3</v>
+      </c>
+      <c r="E75" s="6">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="F75" s="6">
+        <f t="shared" si="4"/>
+        <v>0.15865525393145699</v>
+      </c>
+    </row>
+    <row r="76" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D76" s="6">
+        <f>D75+1</f>
+        <v>4</v>
+      </c>
+      <c r="E76" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+      <c r="F76" s="6">
+        <f t="shared" si="4"/>
+        <v>0.30853753872598688</v>
+      </c>
+    </row>
+    <row r="77" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D77" s="6">
+        <f>D76+1</f>
+        <v>5</v>
+      </c>
+      <c r="E77" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F77" s="6">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="78" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D78" s="6">
+        <f>D77+1</f>
+        <v>6</v>
+      </c>
+      <c r="E78" s="6">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="F78" s="6">
+        <f t="shared" si="4"/>
+        <v>0.69146246127401312</v>
+      </c>
+    </row>
+    <row r="79" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D79" s="6">
+        <f>D78+1</f>
+        <v>7</v>
+      </c>
+      <c r="E79" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F79" s="6">
+        <f t="shared" si="4"/>
+        <v>0.84134474606854304</v>
+      </c>
+    </row>
+    <row r="80" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D80" s="6">
+        <f>D79+1</f>
+        <v>8</v>
+      </c>
+      <c r="E80" s="6">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="F80" s="6">
+        <f t="shared" si="4"/>
+        <v>0.93319279873114191</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D81" s="6">
+        <f>D80+1</f>
+        <v>9</v>
+      </c>
+      <c r="E81" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="F81" s="6">
+        <f t="shared" si="4"/>
+        <v>0.97724986805182079</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D82" s="6">
+        <f>D81+1</f>
+        <v>10</v>
+      </c>
+      <c r="E82" s="6">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="F82" s="6">
+        <f t="shared" si="4"/>
+        <v>0.99379033467422384</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D83" s="6">
+        <f>D82+1</f>
+        <v>11</v>
+      </c>
+      <c r="E83" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F83" s="6">
+        <f t="shared" si="4"/>
+        <v>0.9986501019683699</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D84" s="6">
+        <f>D83+1</f>
+        <v>12</v>
+      </c>
+      <c r="E84" s="6">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="F84" s="6">
+        <f t="shared" si="4"/>
+        <v>0.99976737092096446</v>
+      </c>
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D85" s="6">
+        <f>D84+1</f>
+        <v>13</v>
+      </c>
+      <c r="E85" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F85" s="6">
+        <f t="shared" si="4"/>
+        <v>0.99996832875816688</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/navidi/Exercises.xlsx
+++ b/navidi/Exercises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\_Work\Statistics\navidi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FB9BAD-A554-4918-BAB2-2866E25D7C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0C4C61-A855-445F-9EC2-4ED84225DF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1460" windowWidth="38400" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7490" yWindow="2380" windowWidth="38400" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercises" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="263">
   <si>
     <t>2.2 Counting Methods</t>
   </si>
@@ -824,29 +824,16 @@
     <t>1-F(Z)</t>
   </si>
   <si>
-    <t>alpha</t>
-  </si>
-  <si>
-    <t>betta</t>
-  </si>
-  <si>
     <t>weibull</t>
-  </si>
-  <si>
-    <t>F(X)</t>
-  </si>
-  <si>
-    <t>f(x)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -915,7 +902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -940,7 +927,8 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -959,796 +947,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$D$69:$D$85</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$F$69:$F$85</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>3.1671241833119857E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.3262907903552504E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3498980316300933E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.2096653257761331E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.2750131948179191E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.6807201268858057E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.15865525393145699</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.30853753872598688</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.69146246127401312</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.84134474606854304</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.93319279873114191</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.97724986805182079</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.99379033467422384</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.9986501019683699</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.99976737092096446</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.99996832875816688</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4E9E-4139-BC8F-4789F9118DD9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$E$47:$E$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.79</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.96</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.89</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$D$47:$D$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4E9E-4139-BC8F-4789F9118DD9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1084099424"/>
-        <c:axId val="1084099840"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1084099424"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1084099840"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1084099840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1084099424"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$E$47:$E$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.79</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.96</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.89</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$G$47:$G$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.4368968689107988</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.9511989745839182</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0488010254160818</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.5631031310892016</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DC58-43AE-8E50-71C4AA424636}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="825268640"/>
-        <c:axId val="825270304"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="825268640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="825270304"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="825270304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="825268640"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1829,21 +1027,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.79</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.96</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.89</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1853,21 +1036,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2066,86 +1234,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2701,1112 +1789,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>168275</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>473075</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91F90F2D-AF80-4147-B1AC-F3801163FE47}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>269875</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>574675</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>155575</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE36825A-AF2B-4394-9FCC-6C2D3716E4ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -3837,7 +1821,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4111,8 +2095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO83"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="V72" sqref="V72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6475,7 +4459,7 @@
       <c r="D75" s="1">
         <v>2</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75" s="4">
         <v>3</v>
       </c>
       <c r="F75" s="1">
@@ -6535,7 +4519,7 @@
       <c r="D78" s="1">
         <v>2</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78" s="4">
         <v>3</v>
       </c>
       <c r="F78" s="1">
@@ -6631,7 +4615,7 @@
       <c r="D81" s="1">
         <v>2</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81" s="4">
         <v>3</v>
       </c>
       <c r="F81" s="1">
@@ -6782,8 +4766,8 @@
   <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10199,10 +8183,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B642E4E-4CEB-4761-98FC-68FA36484AD6}">
-  <dimension ref="B3:S85"/>
+  <dimension ref="B3:R125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10312,15 +8296,15 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="G12" s="6">
+        <v>262</v>
+      </c>
+      <c r="G12" s="6" t="e">
         <f>_xlfn.WEIBULL.DIST(G41,E41,F41,TRUE)</f>
-        <v>1</v>
-      </c>
-      <c r="H12" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="H12" s="6" t="e">
         <f>1-G12</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="17" spans="4:18" x14ac:dyDescent="0.35">
@@ -10443,501 +8427,33 @@
         <v>4.7790352272812336E-2</v>
       </c>
     </row>
-    <row r="25" spans="4:18" x14ac:dyDescent="0.35">
-      <c r="E25" s="6">
-        <v>12</v>
-      </c>
-      <c r="F25" s="6">
-        <f>1/E25</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="H25" s="6">
-        <f>(1/F25)*LN(2)</f>
-        <v>8.317766166719343</v>
-      </c>
-    </row>
-    <row r="27" spans="4:18" x14ac:dyDescent="0.35">
-      <c r="E27" s="6">
-        <f>SQRT(F27)</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="F27" s="6">
-        <f>F25*F25</f>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="J27" s="6">
-        <f>F25*LN(1/0.35)</f>
-        <v>8.7485177041556464E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="4:18" x14ac:dyDescent="0.35">
-      <c r="F31" s="6">
-        <v>30</v>
-      </c>
-      <c r="G31" s="6">
-        <v>50</v>
-      </c>
-      <c r="H31" s="6">
-        <f>AVERAGE(F31:G31)</f>
-        <v>40</v>
-      </c>
-      <c r="J31" s="6">
-        <f>7/20</f>
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="32" spans="4:18" x14ac:dyDescent="0.35">
-      <c r="H32" s="6">
-        <f>(G31-F31)^2/12</f>
-        <v>33.333333333333336</v>
-      </c>
-    </row>
-    <row r="35" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="N35" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="O35" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="36" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="N36" s="6">
-        <v>2.25</v>
-      </c>
-      <c r="O36" s="6">
-        <v>4.4739999999999998E-4</v>
-      </c>
-      <c r="P36" s="6">
-        <v>2000</v>
-      </c>
-      <c r="Q36" s="6">
-        <f>1-EXP(-((O36*2000)^N36))</f>
-        <v>0.54100859463658657</v>
-      </c>
-      <c r="S36" s="6">
-        <f>_xlfn.WEIBULL.DIST(P36,N36,O36,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="K37" s="6">
-        <f>1/2.25</f>
-        <v>0.44444444444444442</v>
-      </c>
-    </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="O39" s="6">
-        <f>(LN(2)^(1/N36))/O36</f>
-        <v>1899.1522427156201</v>
-      </c>
-    </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="E40" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="41" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="E41" s="6">
-        <v>2.25</v>
-      </c>
-      <c r="F41" s="6">
-        <v>4.4739999999999998E-4</v>
-      </c>
-      <c r="G41" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I41" s="6">
-        <f>1-EXP(-((F41*$G$41)^$E$41))</f>
-        <v>0.15100884568324602</v>
-      </c>
-      <c r="J41" s="6">
-        <f>1-I41</f>
-        <v>0.84899115431675398</v>
-      </c>
-    </row>
-    <row r="43" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="G43" s="6">
-        <v>2000</v>
-      </c>
-      <c r="I43" s="12">
-        <f>1-EXP(-((G43*$F$41)^$E$41))</f>
-        <v>0.54100859463658657</v>
-      </c>
-      <c r="L43" s="6">
-        <f>E41*F41^E41*G43^(E41-1)*EXP(-((F41*G43)^E41))</f>
-        <v>4.0210596956706215E-4</v>
-      </c>
-      <c r="N43" s="6">
-        <f>L43/(1-I43)</f>
-        <v>8.7606426801976531E-4</v>
-      </c>
-    </row>
-    <row r="45" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="F45" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="47" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C47" s="6">
-        <v>1</v>
-      </c>
-      <c r="D47" s="6">
-        <f>(C47-$F$45)/5</f>
-        <v>0.1</v>
-      </c>
-      <c r="E47" s="6">
-        <v>3.01</v>
-      </c>
-      <c r="F47" s="6">
-        <f>_xlfn.NORM.S.INV(D47)</f>
-        <v>-1.2815515655446006</v>
-      </c>
-      <c r="G47" s="6">
-        <f>F47*$G$66+$G$65</f>
-        <v>2.4368968689107988</v>
-      </c>
-    </row>
-    <row r="48" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C48" s="6">
-        <v>2</v>
-      </c>
-      <c r="D48" s="6">
-        <f t="shared" ref="D48:D51" si="0">(C48-$F$45)/5</f>
-        <v>0.3</v>
-      </c>
-      <c r="E48" s="6">
-        <v>3.35</v>
-      </c>
-      <c r="F48" s="6">
-        <f t="shared" ref="F48:F51" si="1">_xlfn.NORM.S.INV(D48)</f>
-        <v>-0.52440051270804089</v>
-      </c>
-      <c r="G48" s="6">
-        <f t="shared" ref="G48:G51" si="2">F48*$G$66+$G$65</f>
-        <v>3.9511989745839182</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C49" s="6">
-        <v>3</v>
-      </c>
-      <c r="D49" s="6">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="E49" s="6">
-        <v>4.79</v>
-      </c>
-      <c r="F49" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="6">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C50" s="6">
-        <v>4</v>
-      </c>
-      <c r="D50" s="6">
-        <f t="shared" si="0"/>
-        <v>0.7</v>
-      </c>
-      <c r="E50" s="6">
-        <v>5.96</v>
-      </c>
-      <c r="F50" s="6">
-        <f t="shared" si="1"/>
-        <v>0.52440051270804078</v>
-      </c>
-      <c r="G50" s="6">
-        <f t="shared" si="2"/>
-        <v>6.0488010254160818</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C51" s="6">
-        <v>5</v>
-      </c>
-      <c r="D51" s="6">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="E51" s="6">
-        <v>7.89</v>
-      </c>
-      <c r="F51" s="6">
-        <f t="shared" si="1"/>
-        <v>1.2815515655446006</v>
-      </c>
-      <c r="G51" s="6">
-        <f t="shared" si="2"/>
-        <v>7.5631031310892016</v>
-      </c>
-    </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="G65" s="6">
-        <f>AVERAGE(E47:E51)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="G66" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D69" s="6">
-        <v>-3</v>
-      </c>
-      <c r="E69" s="6">
-        <f>(D69-$G$65)/$G$66</f>
-        <v>-4</v>
-      </c>
-      <c r="F69" s="6">
-        <f>_xlfn.NORM.S.DIST(E69,TRUE)</f>
-        <v>3.1671241833119857E-5</v>
-      </c>
-    </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D70" s="6">
-        <f>D69+1</f>
-        <v>-2</v>
-      </c>
-      <c r="E70" s="6">
-        <f t="shared" ref="E70:E85" si="3">(D70-$G$65)/$G$66</f>
-        <v>-3.5</v>
-      </c>
-      <c r="F70" s="6">
-        <f t="shared" ref="F70:F85" si="4">_xlfn.NORM.S.DIST(E70,TRUE)</f>
-        <v>2.3262907903552504E-4</v>
-      </c>
-    </row>
-    <row r="71" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D71" s="6">
-        <f>D70+1</f>
-        <v>-1</v>
-      </c>
-      <c r="E71" s="6">
-        <f t="shared" si="3"/>
-        <v>-3</v>
-      </c>
-      <c r="F71" s="6">
-        <f t="shared" si="4"/>
-        <v>1.3498980316300933E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D72" s="6">
-        <f>D71+1</f>
-        <v>0</v>
-      </c>
-      <c r="E72" s="6">
-        <f t="shared" si="3"/>
-        <v>-2.5</v>
-      </c>
-      <c r="F72" s="6">
-        <f t="shared" si="4"/>
-        <v>6.2096653257761331E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D73" s="6">
-        <f>D72+1</f>
-        <v>1</v>
-      </c>
-      <c r="E73" s="6">
-        <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-      <c r="F73" s="6">
-        <f t="shared" si="4"/>
-        <v>2.2750131948179191E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D74" s="6">
-        <f>D73+1</f>
-        <v>2</v>
-      </c>
-      <c r="E74" s="6">
-        <f t="shared" si="3"/>
-        <v>-1.5</v>
-      </c>
-      <c r="F74" s="6">
-        <f t="shared" si="4"/>
-        <v>6.6807201268858057E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D75" s="6">
-        <f>D74+1</f>
-        <v>3</v>
-      </c>
-      <c r="E75" s="6">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="F75" s="6">
-        <f t="shared" si="4"/>
-        <v>0.15865525393145699</v>
-      </c>
-    </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D76" s="6">
-        <f>D75+1</f>
-        <v>4</v>
-      </c>
-      <c r="E76" s="6">
-        <f t="shared" si="3"/>
-        <v>-0.5</v>
-      </c>
-      <c r="F76" s="6">
-        <f t="shared" si="4"/>
-        <v>0.30853753872598688</v>
-      </c>
-    </row>
-    <row r="77" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D77" s="6">
-        <f>D76+1</f>
-        <v>5</v>
-      </c>
-      <c r="E77" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F77" s="6">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="78" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D78" s="6">
-        <f>D77+1</f>
-        <v>6</v>
-      </c>
-      <c r="E78" s="6">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="F78" s="6">
-        <f t="shared" si="4"/>
-        <v>0.69146246127401312</v>
-      </c>
-    </row>
-    <row r="79" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D79" s="6">
-        <f>D78+1</f>
-        <v>7</v>
-      </c>
-      <c r="E79" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F79" s="6">
-        <f t="shared" si="4"/>
-        <v>0.84134474606854304</v>
-      </c>
-    </row>
-    <row r="80" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D80" s="6">
-        <f>D79+1</f>
-        <v>8</v>
-      </c>
-      <c r="E80" s="6">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
-      <c r="F80" s="6">
-        <f t="shared" si="4"/>
-        <v>0.93319279873114191</v>
-      </c>
-    </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D81" s="6">
-        <f>D80+1</f>
-        <v>9</v>
-      </c>
-      <c r="E81" s="6">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="F81" s="6">
-        <f t="shared" si="4"/>
-        <v>0.97724986805182079</v>
-      </c>
-    </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D82" s="6">
-        <f>D81+1</f>
-        <v>10</v>
-      </c>
-      <c r="E82" s="6">
-        <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-      <c r="F82" s="6">
-        <f t="shared" si="4"/>
-        <v>0.99379033467422384</v>
-      </c>
-    </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D83" s="6">
-        <f>D82+1</f>
-        <v>11</v>
-      </c>
-      <c r="E83" s="6">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="F83" s="6">
-        <f t="shared" si="4"/>
-        <v>0.9986501019683699</v>
-      </c>
-    </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D84" s="6">
-        <f>D83+1</f>
-        <v>12</v>
-      </c>
-      <c r="E84" s="6">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="F84" s="6">
-        <f t="shared" si="4"/>
-        <v>0.99976737092096446</v>
-      </c>
-    </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D85" s="6">
-        <f>D84+1</f>
-        <v>13</v>
-      </c>
-      <c r="E85" s="6">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="F85" s="6">
-        <f t="shared" si="4"/>
-        <v>0.99996832875816688</v>
-      </c>
+    <row r="119" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+    </row>
+    <row r="120" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+    </row>
+    <row r="121" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+    </row>
+    <row r="122" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+    </row>
+    <row r="123" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+    </row>
+    <row r="125" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C125" s="12"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F28:F67">
+    <sortCondition ref="F28:F67"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/navidi/Exercises.xlsx
+++ b/navidi/Exercises.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\_Work\Statistics\navidi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Others\Statistics\navidi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0C4C61-A855-445F-9EC2-4ED84225DF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD46A31D-7132-4ACB-BBBA-BC7D61AFF67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7490" yWindow="2380" windowWidth="38400" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="29010" windowHeight="23385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercises" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="269">
   <si>
     <t>2.2 Counting Methods</t>
   </si>
@@ -825,6 +825,50 @@
   </si>
   <si>
     <t>weibull</t>
+  </si>
+  <si>
+    <r>
+      <t>...</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>100..</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500</t>
+    </r>
+  </si>
+  <si>
+    <t>500…</t>
+  </si>
+  <si>
+    <t>Z - continuous</t>
+  </si>
+  <si>
+    <t>P(z&lt;=500)</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -835,7 +879,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -853,6 +897,14 @@
       <b/>
       <sz val="11"/>
       <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -986,7 +1038,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1112,7 +1164,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="807186832"/>
@@ -1174,7 +1226,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="827666976"/>
@@ -1222,7 +1274,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2095,29 +2147,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="V72" sqref="V72"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
-    <col min="3" max="41" width="4.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="41" width="4.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2143,7 +2195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>1</v>
       </c>
@@ -2172,12 +2224,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2203,7 +2255,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>1</v>
       </c>
@@ -2259,12 +2311,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
@@ -2272,7 +2324,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>1</v>
       </c>
@@ -2346,7 +2398,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>245</v>
       </c>
@@ -2408,18 +2460,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
         <v>23</v>
       </c>
@@ -2448,7 +2500,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
@@ -2516,12 +2568,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="1" t="s">
         <v>33</v>
@@ -2545,7 +2597,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="1">
         <v>1</v>
@@ -2584,12 +2636,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>41</v>
       </c>
@@ -2617,7 +2669,7 @@
       <c r="K20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="4" t="s">
         <v>50</v>
       </c>
       <c r="M20" s="4" t="s">
@@ -2633,7 +2685,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="1">
         <v>1</v>
@@ -2753,7 +2805,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>56</v>
       </c>
@@ -2763,7 +2815,7 @@
       <c r="D22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -2809,7 +2861,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C23" s="4" t="s">
         <v>32</v>
       </c>
@@ -2889,12 +2941,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>75</v>
       </c>
@@ -2908,7 +2960,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>32</v>
       </c>
@@ -2924,7 +2976,7 @@
       <c r="G26" s="1">
         <v>5</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="4">
         <v>6</v>
       </c>
       <c r="I26" s="1">
@@ -2964,12 +3016,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>80</v>
       </c>
@@ -3040,7 +3092,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C29" s="1">
         <v>1</v>
       </c>
@@ -3141,7 +3193,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>244</v>
       </c>
@@ -3251,17 +3303,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C33" s="4" t="s">
         <v>104</v>
       </c>
@@ -3272,7 +3324,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C34" s="4" t="s">
         <v>32</v>
       </c>
@@ -3301,12 +3353,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>116</v>
       </c>
@@ -3338,7 +3390,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C37" s="1">
         <v>1</v>
       </c>
@@ -3400,12 +3452,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
         <v>127</v>
       </c>
@@ -3419,7 +3471,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C40" s="1">
         <v>1</v>
       </c>
@@ -3481,12 +3533,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>136</v>
       </c>
@@ -3512,7 +3564,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C43" s="1">
         <v>1</v>
       </c>
@@ -3607,7 +3659,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>243</v>
       </c>
@@ -3681,17 +3733,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C47" s="4" t="s">
         <v>145</v>
       </c>
@@ -3705,7 +3757,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C48" s="1">
         <v>1</v>
       </c>
@@ -3731,12 +3783,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C50" s="4" t="s">
         <v>149</v>
       </c>
@@ -3768,7 +3820,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C51" s="1">
         <v>1</v>
       </c>
@@ -3848,12 +3900,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C53" s="1" t="s">
         <v>161</v>
       </c>
@@ -3894,7 +3946,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="54" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C54" s="1">
         <v>1</v>
       </c>
@@ -3959,12 +4011,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
         <v>175</v>
       </c>
@@ -3996,7 +4048,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="57" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C57" s="1">
         <v>1</v>
       </c>
@@ -4052,12 +4104,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="59" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C59" s="1" t="s">
         <v>186</v>
       </c>
@@ -4101,7 +4153,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C60" s="1">
         <v>1</v>
       </c>
@@ -4187,12 +4239,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="s">
         <v>201</v>
       </c>
@@ -4206,7 +4258,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C63" s="4">
         <v>1</v>
       </c>
@@ -4247,12 +4299,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C65" s="1" t="s">
         <v>206</v>
       </c>
@@ -4275,7 +4327,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C66" s="4">
         <v>1</v>
       </c>
@@ -4322,12 +4374,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C68" s="1" t="s">
         <v>214</v>
       </c>
@@ -4341,7 +4393,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C69" s="4">
         <v>1</v>
       </c>
@@ -4394,12 +4446,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C71" s="1" t="s">
         <v>219</v>
       </c>
@@ -4410,7 +4462,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C72" s="1" t="s">
         <v>32</v>
       </c>
@@ -4442,17 +4494,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C74" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C75" s="1" t="s">
         <v>32</v>
       </c>
@@ -4484,12 +4536,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C77" s="1" t="s">
         <v>225</v>
       </c>
@@ -4512,7 +4564,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C78" s="1">
         <v>1</v>
       </c>
@@ -4574,12 +4626,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C80" s="1" t="s">
         <v>233</v>
       </c>
@@ -4608,7 +4660,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="81" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C81" s="1">
         <v>1</v>
       </c>
@@ -4652,12 +4704,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="83" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C83" s="1">
         <v>1</v>
       </c>
@@ -4770,12 +4822,12 @@
       <selection pane="bottomLeft" activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="8"/>
+    <col min="1" max="1" width="8.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9">
         <v>0</v>
       </c>
@@ -4807,7 +4859,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>-3.6</v>
       </c>
@@ -4852,7 +4904,7 @@
         <v>1.1212702598224692E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>-3.5</v>
       </c>
@@ -4897,7 +4949,7 @@
         <v>1.6533898072010957E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>-3.4</v>
       </c>
@@ -4942,7 +4994,7 @@
         <v>2.4151027356783598E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>-3.3</v>
       </c>
@@ -4987,7 +5039,7 @@
         <v>3.4946311833797158E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>-3.2</v>
       </c>
@@ -5032,7 +5084,7 @@
         <v>5.0093691378572244E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>-3.1</v>
       </c>
@@ -5077,7 +5129,7 @@
         <v>7.1136396864536315E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>-3</v>
       </c>
@@ -5122,7 +5174,7 @@
         <v>1.0007824766140115E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>-2.9</v>
       </c>
@@ -5167,7 +5219,7 @@
         <v>1.3948872354922507E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>-2.8</v>
       </c>
@@ -5212,7 +5264,7 @@
         <v>1.9262091321878626E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>-2.7</v>
       </c>
@@ -5257,7 +5309,7 @@
         <v>2.6354020779049505E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>-2.6</v>
       </c>
@@ -5302,7 +5354,7 @@
         <v>3.5726009523997363E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>-2.5</v>
       </c>
@@ -5347,7 +5399,7 @@
         <v>4.7987965971261785E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>-2.4</v>
       </c>
@@ -5392,7 +5444,7 @@
         <v>6.3871547649431782E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>-2.2999999999999998</v>
       </c>
@@ -5437,7 +5489,7 @@
         <v>8.4241863993456938E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>-2.2000000000000002</v>
       </c>
@@ -5482,7 +5534,7 @@
         <v>1.1010658324411384E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>-2.1</v>
       </c>
@@ -5527,7 +5579,7 @@
         <v>1.4262118410668875E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>-2</v>
       </c>
@@ -5572,7 +5624,7 @@
         <v>1.8308899851658973E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>-1.9</v>
       </c>
@@ -5617,7 +5669,7 @@
         <v>2.329546775021182E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>-1.8</v>
       </c>
@@ -5662,7 +5714,7 @@
         <v>2.9378980040409414E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>-1.7</v>
       </c>
@@ -5707,7 +5759,7 @@
         <v>3.6726955698726291E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>-1.6</v>
       </c>
@@ -5752,7 +5804,7 @@
         <v>4.551397732154977E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>-1.5</v>
       </c>
@@ -5797,7 +5849,7 @@
         <v>5.5917402519469417E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>-1.4</v>
       </c>
@@ -5842,7 +5894,7 @@
         <v>6.8112117966725436E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>-1.3</v>
       </c>
@@ -5887,7 +5939,7 @@
         <v>8.2264438677668902E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>-1.2</v>
       </c>
@@ -5932,7 +5984,7 @@
         <v>9.8525329049747812E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>-1.1000000000000001</v>
       </c>
@@ -5977,7 +6029,7 @@
         <v>0.11702319602310868</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>-1</v>
       </c>
@@ -6023,7 +6075,7 @@
       </c>
       <c r="M28" s="10"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>-0.9</v>
       </c>
@@ -6068,7 +6120,7 @@
         <v>0.16108705951083091</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>-0.8</v>
       </c>
@@ -6113,7 +6165,7 @@
         <v>0.18673294303717258</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>-0.7</v>
       </c>
@@ -6158,7 +6210,7 @@
         <v>0.21476388416363718</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>-0.6</v>
       </c>
@@ -6203,7 +6255,7 @@
         <v>0.24509709367430943</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>-0.5</v>
       </c>
@@ -6248,7 +6300,7 @@
         <v>0.27759532475346493</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>-0.4</v>
       </c>
@@ -6293,7 +6345,7 @@
         <v>0.31206694941739055</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>-0.3</v>
       </c>
@@ -6338,7 +6390,7 @@
         <v>0.34826827346401756</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>-0.2</v>
       </c>
@@ -6383,7 +6435,7 @@
         <v>0.38590811880112263</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>-0.1</v>
       </c>
@@ -6428,7 +6480,7 @@
         <v>0.42465456526520451</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>0</v>
       </c>
@@ -6473,7 +6525,7 @@
         <v>0.46414360741482791</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -6485,7 +6537,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>0</v>
       </c>
@@ -6530,7 +6582,7 @@
         <v>0.53585639258517204</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>0.1</v>
       </c>
@@ -6575,7 +6627,7 @@
         <v>0.57534543473479549</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>0.2</v>
       </c>
@@ -6620,7 +6672,7 @@
         <v>0.61409188119887737</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>0.3</v>
       </c>
@@ -6665,7 +6717,7 @@
         <v>0.65173172653598244</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>0.4</v>
       </c>
@@ -6710,7 +6762,7 @@
         <v>0.68793305058260945</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>0.5</v>
       </c>
@@ -6755,7 +6807,7 @@
         <v>0.72240467524653507</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>0.6</v>
       </c>
@@ -6800,7 +6852,7 @@
         <v>0.75490290632569057</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>0.7</v>
       </c>
@@ -6845,7 +6897,7 @@
         <v>0.78523611583636277</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>0.8</v>
       </c>
@@ -6890,7 +6942,7 @@
         <v>0.81326705696282742</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>0.9</v>
       </c>
@@ -6935,7 +6987,7 @@
         <v>0.83891294048916909</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>1</v>
       </c>
@@ -6980,7 +7032,7 @@
         <v>0.8621434279679645</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -7025,7 +7077,7 @@
         <v>0.88297680397689127</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>1.2</v>
       </c>
@@ -7071,7 +7123,7 @@
       </c>
       <c r="M52" s="10"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>1.3</v>
       </c>
@@ -7116,7 +7168,7 @@
         <v>0.91773556132233114</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>1.4</v>
       </c>
@@ -7161,7 +7213,7 @@
         <v>0.93188788203327455</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>1.5</v>
       </c>
@@ -7206,7 +7258,7 @@
         <v>0.94408259748053058</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>1.6</v>
       </c>
@@ -7251,7 +7303,7 @@
         <v>0.95448602267845017</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>1.7</v>
       </c>
@@ -7296,7 +7348,7 @@
         <v>0.9632730443012737</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>1.8</v>
       </c>
@@ -7341,7 +7393,7 @@
         <v>0.9706210199595906</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>1.9</v>
       </c>
@@ -7386,7 +7438,7 @@
         <v>0.97670453224978815</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>2</v>
       </c>
@@ -7431,7 +7483,7 @@
         <v>0.98169110014834104</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>2.1000000000000099</v>
       </c>
@@ -7476,7 +7528,7 @@
         <v>0.98573788158933151</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>2.2000000000000002</v>
       </c>
@@ -7521,7 +7573,7 @@
         <v>0.98898934167558861</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>2.2999999999999998</v>
       </c>
@@ -7566,7 +7618,7 @@
         <v>0.99157581360065428</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>2.4000000000000101</v>
       </c>
@@ -7611,7 +7663,7 @@
         <v>0.993612845235057</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>2.5000000000000102</v>
       </c>
@@ -7656,7 +7708,7 @@
         <v>0.99520120340287399</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>2.6000000000000099</v>
       </c>
@@ -7701,7 +7753,7 @@
         <v>0.99642739904760036</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>2.7</v>
       </c>
@@ -7746,7 +7798,7 @@
         <v>0.99736459792209509</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>2.80000000000001</v>
       </c>
@@ -7791,7 +7843,7 @@
         <v>0.99807379086781223</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>2.9000000000000101</v>
       </c>
@@ -7836,7 +7888,7 @@
         <v>0.99860511276450781</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>3.0000000000000102</v>
       </c>
@@ -7881,7 +7933,7 @@
         <v>0.99899921752338605</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>3.1000000000000099</v>
       </c>
@@ -7926,7 +7978,7 @@
         <v>0.99928863603135465</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>3.2000000000000099</v>
       </c>
@@ -7971,7 +8023,7 @@
         <v>0.99949906308621428</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>3.30000000000001</v>
       </c>
@@ -8016,7 +8068,7 @@
         <v>0.99965053688166206</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>3.4000000000000101</v>
       </c>
@@ -8061,7 +8113,7 @@
         <v>0.99975848972643222</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>3.5000000000000102</v>
       </c>
@@ -8106,7 +8158,7 @@
         <v>0.99983466101927987</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>3.6000000000000099</v>
       </c>
@@ -8151,7 +8203,7 @@
         <v>0.99988787297401771</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
@@ -8163,7 +8215,7 @@
       <c r="J77" s="10"/>
       <c r="K77" s="10"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -8185,21 +8237,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B642E4E-4CEB-4761-98FC-68FA36484AD6}">
   <dimension ref="B3:R125"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="6"/>
-    <col min="2" max="2" width="14.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.7265625" style="6"/>
-    <col min="6" max="8" width="11.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="8.7109375" style="6"/>
+    <col min="2" max="2" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" style="6"/>
+    <col min="6" max="8" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="6"/>
+    <col min="10" max="10" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C3" s="6" t="s">
         <v>246</v>
       </c>
@@ -8210,7 +8264,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>249</v>
       </c>
@@ -8232,7 +8286,7 @@
         <v>0.85400199890136719</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C6" s="6" t="s">
         <v>251</v>
       </c>
@@ -8240,7 +8294,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>250</v>
       </c>
@@ -8259,7 +8313,7 @@
         <v>0.7293294335267746</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C9" s="6" t="s">
         <v>253</v>
       </c>
@@ -8273,7 +8327,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>252</v>
       </c>
@@ -8294,7 +8348,7 @@
         <v>0.48351648351648341</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>262</v>
       </c>
@@ -8307,7 +8361,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="17" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D17" s="6" t="s">
         <v>258</v>
       </c>
@@ -8315,7 +8369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D18" s="6" t="s">
         <v>255</v>
       </c>
@@ -8323,7 +8377,7 @@
         <v>12.05</v>
       </c>
     </row>
-    <row r="19" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D19" s="6" t="s">
         <v>256</v>
       </c>
@@ -8349,7 +8403,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D20" s="6" t="s">
         <v>257</v>
       </c>
@@ -8387,7 +8441,7 @@
         <v>9.28818501377352E-2</v>
       </c>
     </row>
-    <row r="21" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="I21" s="6">
         <v>0.02</v>
       </c>
@@ -8418,7 +8472,7 @@
         <v>0.20850836168401488</v>
       </c>
     </row>
-    <row r="22" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D22" s="6" t="s">
         <v>259</v>
       </c>
@@ -8427,27 +8481,69 @@
         <v>4.7790352272812336E-2</v>
       </c>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="119" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E119" s="13"/>
       <c r="F119" s="13"/>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E120" s="13"/>
       <c r="F120" s="13"/>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E121" s="13"/>
       <c r="F121" s="13"/>
     </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E122" s="13"/>
       <c r="F122" s="13"/>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E123" s="13"/>
       <c r="F123" s="13"/>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C125" s="12"/>
     </row>
   </sheetData>

--- a/navidi/Exercises.xlsx
+++ b/navidi/Exercises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Others\Statistics\navidi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD46A31D-7132-4ACB-BBBA-BC7D61AFF67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612D2A38-3ECE-45E3-9DC4-FD4DEAA6C7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="29010" windowHeight="23385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29025" yWindow="1275" windowWidth="43200" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercises" sheetId="1" r:id="rId1"/>
@@ -2147,8 +2147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2481,7 +2481,7 @@
       <c r="E14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -3598,7 +3598,7 @@
       <c r="M43" s="4">
         <v>11</v>
       </c>
-      <c r="N43" s="1">
+      <c r="N43" s="4">
         <v>12</v>
       </c>
       <c r="O43" s="1">
@@ -8238,7 +8238,7 @@
   <dimension ref="B3:R125"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8488,6 +8488,12 @@
       <c r="C27" s="6" t="s">
         <v>263</v>
       </c>
+      <c r="H27" s="6">
+        <v>43.94</v>
+      </c>
+      <c r="I27" s="6">
+        <v>1.18</v>
+      </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="6">
@@ -8496,6 +8502,12 @@
       <c r="C28" s="6" t="s">
         <v>264</v>
       </c>
+      <c r="H28" s="6">
+        <v>48.66</v>
+      </c>
+      <c r="I28" s="6">
+        <v>1.76</v>
+      </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="6">
@@ -8505,6 +8517,16 @@
         <v>265</v>
       </c>
     </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="H30" s="6">
+        <f>H28-H27</f>
+        <v>4.7199999999999989</v>
+      </c>
+      <c r="I30" s="6">
+        <f>SQRT(I27^2+I28^2)</f>
+        <v>2.118962010041709</v>
+      </c>
+    </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
         <v>266</v>
@@ -8518,9 +8540,30 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="6">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="6">
+        <f>SUM(H35:H38)</f>
+        <v>0.8</v>
       </c>
     </row>
     <row r="119" spans="3:6" x14ac:dyDescent="0.25">

--- a/navidi/Exercises.xlsx
+++ b/navidi/Exercises.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Others\Statistics\navidi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\_Work\Statistics\navidi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612D2A38-3ECE-45E3-9DC4-FD4DEAA6C7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F36092-B154-4E4D-803B-50E61E84A15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29025" yWindow="1275" windowWidth="43200" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="38400" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercises" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="282">
   <si>
     <t>2.2 Counting Methods</t>
   </si>
@@ -869,6 +869,45 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>5. Confidence Intervals</t>
+  </si>
+  <si>
+    <t>5.1 Confidence Intervals for a Population Mean, Variance Known</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>5.10</t>
+  </si>
+  <si>
+    <t>5.2 Confidence Intervals for a Population Mean, Variance Unknown</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1077,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1164,7 +1203,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="807186832"/>
@@ -1226,7 +1265,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="827666976"/>
@@ -1274,7 +1313,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2145,31 +2184,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO83"/>
+  <dimension ref="A1:AO88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="N89" sqref="N89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="41" width="4.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="3" max="41" width="4.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2195,7 +2234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C4" s="1">
         <v>1</v>
       </c>
@@ -2224,12 +2263,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2255,7 +2294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C7" s="1">
         <v>1</v>
       </c>
@@ -2311,12 +2350,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
@@ -2324,7 +2363,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C10" s="1">
         <v>1</v>
       </c>
@@ -2398,7 +2437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>245</v>
       </c>
@@ -2460,18 +2499,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C14" s="4" t="s">
         <v>23</v>
       </c>
@@ -2500,7 +2539,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
@@ -2568,12 +2607,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B17" s="3"/>
       <c r="C17" s="1" t="s">
         <v>33</v>
@@ -2597,7 +2636,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B18" s="3"/>
       <c r="C18" s="1">
         <v>1</v>
@@ -2617,7 +2656,7 @@
       <c r="H18" s="1">
         <v>6</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="4">
         <v>7</v>
       </c>
       <c r="J18" s="1">
@@ -2636,12 +2675,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B19" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C20" s="1" t="s">
         <v>41</v>
       </c>
@@ -2685,7 +2724,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B21" s="3"/>
       <c r="C21" s="1">
         <v>1</v>
@@ -2805,7 +2844,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
         <v>56</v>
       </c>
@@ -2861,7 +2900,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C23" s="4" t="s">
         <v>32</v>
       </c>
@@ -2941,12 +2980,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B24" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C25" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,7 +2999,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C26" s="1" t="s">
         <v>32</v>
       </c>
@@ -3016,12 +3055,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B27" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C28" s="1" t="s">
         <v>80</v>
       </c>
@@ -3092,7 +3131,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C29" s="1">
         <v>1</v>
       </c>
@@ -3193,7 +3232,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B30" s="3" t="s">
         <v>244</v>
       </c>
@@ -3303,17 +3342,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B32" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C33" s="4" t="s">
         <v>104</v>
       </c>
@@ -3324,7 +3363,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C34" s="4" t="s">
         <v>32</v>
       </c>
@@ -3353,12 +3392,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B35" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C36" s="1" t="s">
         <v>116</v>
       </c>
@@ -3368,7 +3407,7 @@
       <c r="E36" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="4" t="s">
         <v>119</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -3390,7 +3429,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C37" s="1">
         <v>1</v>
       </c>
@@ -3452,12 +3491,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B38" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C39" s="1" t="s">
         <v>127</v>
       </c>
@@ -3471,7 +3510,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C40" s="1">
         <v>1</v>
       </c>
@@ -3533,12 +3572,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B41" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C42" s="1" t="s">
         <v>136</v>
       </c>
@@ -3564,7 +3603,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C43" s="1">
         <v>1</v>
       </c>
@@ -3622,7 +3661,7 @@
       <c r="U43" s="1">
         <v>19</v>
       </c>
-      <c r="V43" s="1">
+      <c r="V43" s="4">
         <v>20</v>
       </c>
       <c r="W43" s="1">
@@ -3659,7 +3698,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B44" s="3" t="s">
         <v>243</v>
       </c>
@@ -3669,7 +3708,7 @@
       <c r="D44" s="1">
         <v>2</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="4">
         <v>3</v>
       </c>
       <c r="F44" s="1">
@@ -3733,21 +3772,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B46" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C47" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="4" t="s">
         <v>146</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -3757,7 +3796,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C48" s="1">
         <v>1</v>
       </c>
@@ -3783,12 +3822,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B49" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:30" x14ac:dyDescent="0.35">
       <c r="C50" s="4" t="s">
         <v>149</v>
       </c>
@@ -3820,7 +3859,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:30" x14ac:dyDescent="0.35">
       <c r="C51" s="1">
         <v>1</v>
       </c>
@@ -3900,12 +3939,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B52" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:30" x14ac:dyDescent="0.35">
       <c r="C53" s="1" t="s">
         <v>161</v>
       </c>
@@ -3946,7 +3985,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="54" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:30" x14ac:dyDescent="0.35">
       <c r="C54" s="1">
         <v>1</v>
       </c>
@@ -4011,12 +4050,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B55" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:30" x14ac:dyDescent="0.35">
       <c r="C56" s="1" t="s">
         <v>175</v>
       </c>
@@ -4048,7 +4087,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="57" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:30" x14ac:dyDescent="0.35">
       <c r="C57" s="1">
         <v>1</v>
       </c>
@@ -4104,16 +4143,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B58" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="59" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:30" x14ac:dyDescent="0.35">
       <c r="C59" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="4" t="s">
         <v>187</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -4153,7 +4192,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:30" x14ac:dyDescent="0.35">
       <c r="C60" s="1">
         <v>1</v>
       </c>
@@ -4235,16 +4274,16 @@
       <c r="AC60" s="4">
         <v>27</v>
       </c>
-      <c r="AD60" s="1">
+      <c r="AD60" s="4">
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B61" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:30" x14ac:dyDescent="0.35">
       <c r="C62" s="1" t="s">
         <v>201</v>
       </c>
@@ -4258,7 +4297,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:30" x14ac:dyDescent="0.35">
       <c r="C63" s="4">
         <v>1</v>
       </c>
@@ -4299,12 +4338,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B64" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.35">
       <c r="C65" s="1" t="s">
         <v>206</v>
       </c>
@@ -4327,7 +4366,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.35">
       <c r="C66" s="4">
         <v>1</v>
       </c>
@@ -4374,12 +4413,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B67" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.35">
       <c r="C68" s="1" t="s">
         <v>214</v>
       </c>
@@ -4393,7 +4432,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.35">
       <c r="C69" s="4">
         <v>1</v>
       </c>
@@ -4446,12 +4485,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B70" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.35">
       <c r="C71" s="1" t="s">
         <v>219</v>
       </c>
@@ -4462,7 +4501,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.35">
       <c r="C72" s="1" t="s">
         <v>32</v>
       </c>
@@ -4494,17 +4533,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B73" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.35">
       <c r="C74" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.35">
       <c r="C75" s="1" t="s">
         <v>32</v>
       </c>
@@ -4536,12 +4575,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B76" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.35">
       <c r="C77" s="1" t="s">
         <v>225</v>
       </c>
@@ -4564,7 +4603,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.35">
       <c r="C78" s="1">
         <v>1</v>
       </c>
@@ -4626,12 +4665,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B79" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.35">
       <c r="C80" s="1" t="s">
         <v>233</v>
       </c>
@@ -4660,7 +4699,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="81" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.35">
       <c r="C81" s="1">
         <v>1</v>
       </c>
@@ -4704,12 +4743,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B82" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="83" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.35">
       <c r="C83" s="1">
         <v>1</v>
       </c>
@@ -4731,7 +4770,7 @@
       <c r="I83" s="1">
         <v>7</v>
       </c>
-      <c r="J83" s="1">
+      <c r="J83" s="4">
         <v>8</v>
       </c>
       <c r="K83" s="1">
@@ -4799,6 +4838,109 @@
       </c>
       <c r="AF83" s="1">
         <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="85" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B85" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="86" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="C86" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
+        <v>2</v>
+      </c>
+      <c r="E87" s="1">
+        <v>3</v>
+      </c>
+      <c r="F87" s="1">
+        <v>4</v>
+      </c>
+      <c r="G87" s="1">
+        <v>5</v>
+      </c>
+      <c r="H87" s="1">
+        <v>6</v>
+      </c>
+      <c r="I87" s="1">
+        <v>7</v>
+      </c>
+      <c r="J87" s="1">
+        <v>8</v>
+      </c>
+      <c r="K87" s="1">
+        <v>9</v>
+      </c>
+      <c r="L87" s="1">
+        <v>10</v>
+      </c>
+      <c r="M87" s="1">
+        <v>11</v>
+      </c>
+      <c r="N87" s="1">
+        <v>12</v>
+      </c>
+      <c r="O87" s="1">
+        <v>13</v>
+      </c>
+      <c r="P87" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>15</v>
+      </c>
+      <c r="R87" s="1">
+        <v>16</v>
+      </c>
+      <c r="S87" s="1">
+        <v>17</v>
+      </c>
+      <c r="T87" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B88" s="3" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -4818,16 +4960,16 @@
   <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J48" sqref="J48"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="8"/>
+    <col min="1" max="1" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="9">
         <v>0</v>
       </c>
@@ -4859,7 +5001,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>-3.6</v>
       </c>
@@ -4904,7 +5046,7 @@
         <v>1.1212702598224692E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>-3.5</v>
       </c>
@@ -4949,7 +5091,7 @@
         <v>1.6533898072010957E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>-3.4</v>
       </c>
@@ -4994,7 +5136,7 @@
         <v>2.4151027356783598E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>-3.3</v>
       </c>
@@ -5039,7 +5181,7 @@
         <v>3.4946311833797158E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>-3.2</v>
       </c>
@@ -5084,7 +5226,7 @@
         <v>5.0093691378572244E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>-3.1</v>
       </c>
@@ -5129,7 +5271,7 @@
         <v>7.1136396864536315E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>-3</v>
       </c>
@@ -5174,7 +5316,7 @@
         <v>1.0007824766140115E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>-2.9</v>
       </c>
@@ -5219,7 +5361,7 @@
         <v>1.3948872354922507E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>-2.8</v>
       </c>
@@ -5264,7 +5406,7 @@
         <v>1.9262091321878626E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>-2.7</v>
       </c>
@@ -5309,7 +5451,7 @@
         <v>2.6354020779049505E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>-2.6</v>
       </c>
@@ -5354,7 +5496,7 @@
         <v>3.5726009523997363E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>-2.5</v>
       </c>
@@ -5399,7 +5541,7 @@
         <v>4.7987965971261785E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>-2.4</v>
       </c>
@@ -5444,7 +5586,7 @@
         <v>6.3871547649431782E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>-2.2999999999999998</v>
       </c>
@@ -5489,7 +5631,7 @@
         <v>8.4241863993456938E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>-2.2000000000000002</v>
       </c>
@@ -5534,7 +5676,7 @@
         <v>1.1010658324411384E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>-2.1</v>
       </c>
@@ -5579,7 +5721,7 @@
         <v>1.4262118410668875E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>-2</v>
       </c>
@@ -5624,7 +5766,7 @@
         <v>1.8308899851658973E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>-1.9</v>
       </c>
@@ -5669,7 +5811,7 @@
         <v>2.329546775021182E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>-1.8</v>
       </c>
@@ -5714,7 +5856,7 @@
         <v>2.9378980040409414E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>-1.7</v>
       </c>
@@ -5759,7 +5901,7 @@
         <v>3.6726955698726291E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>-1.6</v>
       </c>
@@ -5804,7 +5946,7 @@
         <v>4.551397732154977E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>-1.5</v>
       </c>
@@ -5849,7 +5991,7 @@
         <v>5.5917402519469417E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>-1.4</v>
       </c>
@@ -5894,7 +6036,7 @@
         <v>6.8112117966725436E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>-1.3</v>
       </c>
@@ -5939,7 +6081,7 @@
         <v>8.2264438677668902E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>-1.2</v>
       </c>
@@ -5984,7 +6126,7 @@
         <v>9.8525329049747812E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>-1.1000000000000001</v>
       </c>
@@ -6029,7 +6171,7 @@
         <v>0.11702319602310868</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>-1</v>
       </c>
@@ -6075,7 +6217,7 @@
       </c>
       <c r="M28" s="10"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>-0.9</v>
       </c>
@@ -6120,7 +6262,7 @@
         <v>0.16108705951083091</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>-0.8</v>
       </c>
@@ -6165,7 +6307,7 @@
         <v>0.18673294303717258</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>-0.7</v>
       </c>
@@ -6210,7 +6352,7 @@
         <v>0.21476388416363718</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>-0.6</v>
       </c>
@@ -6255,7 +6397,7 @@
         <v>0.24509709367430943</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>-0.5</v>
       </c>
@@ -6300,7 +6442,7 @@
         <v>0.27759532475346493</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>-0.4</v>
       </c>
@@ -6345,7 +6487,7 @@
         <v>0.31206694941739055</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="8">
         <v>-0.3</v>
       </c>
@@ -6390,7 +6532,7 @@
         <v>0.34826827346401756</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
         <v>-0.2</v>
       </c>
@@ -6435,7 +6577,7 @@
         <v>0.38590811880112263</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
         <v>-0.1</v>
       </c>
@@ -6480,7 +6622,7 @@
         <v>0.42465456526520451</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="8">
         <v>0</v>
       </c>
@@ -6525,7 +6667,7 @@
         <v>0.46414360741482791</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -6537,7 +6679,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
         <v>0</v>
       </c>
@@ -6582,7 +6724,7 @@
         <v>0.53585639258517204</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="8">
         <v>0.1</v>
       </c>
@@ -6627,7 +6769,7 @@
         <v>0.57534543473479549</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
         <v>0.2</v>
       </c>
@@ -6672,7 +6814,7 @@
         <v>0.61409188119887737</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
         <v>0.3</v>
       </c>
@@ -6717,7 +6859,7 @@
         <v>0.65173172653598244</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="8">
         <v>0.4</v>
       </c>
@@ -6762,7 +6904,7 @@
         <v>0.68793305058260945</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="8">
         <v>0.5</v>
       </c>
@@ -6807,7 +6949,7 @@
         <v>0.72240467524653507</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <v>0.6</v>
       </c>
@@ -6852,7 +6994,7 @@
         <v>0.75490290632569057</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="8">
         <v>0.7</v>
       </c>
@@ -6897,7 +7039,7 @@
         <v>0.78523611583636277</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="8">
         <v>0.8</v>
       </c>
@@ -6942,7 +7084,7 @@
         <v>0.81326705696282742</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="8">
         <v>0.9</v>
       </c>
@@ -6987,7 +7129,7 @@
         <v>0.83891294048916909</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="8">
         <v>1</v>
       </c>
@@ -7032,7 +7174,7 @@
         <v>0.8621434279679645</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -7077,7 +7219,7 @@
         <v>0.88297680397689127</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="8">
         <v>1.2</v>
       </c>
@@ -7123,7 +7265,7 @@
       </c>
       <c r="M52" s="10"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="8">
         <v>1.3</v>
       </c>
@@ -7168,7 +7310,7 @@
         <v>0.91773556132233114</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="8">
         <v>1.4</v>
       </c>
@@ -7213,7 +7355,7 @@
         <v>0.93188788203327455</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="8">
         <v>1.5</v>
       </c>
@@ -7258,7 +7400,7 @@
         <v>0.94408259748053058</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="8">
         <v>1.6</v>
       </c>
@@ -7303,7 +7445,7 @@
         <v>0.95448602267845017</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="8">
         <v>1.7</v>
       </c>
@@ -7348,7 +7490,7 @@
         <v>0.9632730443012737</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="8">
         <v>1.8</v>
       </c>
@@ -7393,7 +7535,7 @@
         <v>0.9706210199595906</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="8">
         <v>1.9</v>
       </c>
@@ -7438,7 +7580,7 @@
         <v>0.97670453224978815</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="8">
         <v>2</v>
       </c>
@@ -7483,7 +7625,7 @@
         <v>0.98169110014834104</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="8">
         <v>2.1000000000000099</v>
       </c>
@@ -7528,7 +7670,7 @@
         <v>0.98573788158933151</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="8">
         <v>2.2000000000000002</v>
       </c>
@@ -7573,7 +7715,7 @@
         <v>0.98898934167558861</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="8">
         <v>2.2999999999999998</v>
       </c>
@@ -7618,7 +7760,7 @@
         <v>0.99157581360065428</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="8">
         <v>2.4000000000000101</v>
       </c>
@@ -7663,7 +7805,7 @@
         <v>0.993612845235057</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="8">
         <v>2.5000000000000102</v>
       </c>
@@ -7708,7 +7850,7 @@
         <v>0.99520120340287399</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="8">
         <v>2.6000000000000099</v>
       </c>
@@ -7753,7 +7895,7 @@
         <v>0.99642739904760036</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="8">
         <v>2.7</v>
       </c>
@@ -7798,7 +7940,7 @@
         <v>0.99736459792209509</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="8">
         <v>2.80000000000001</v>
       </c>
@@ -7843,7 +7985,7 @@
         <v>0.99807379086781223</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="8">
         <v>2.9000000000000101</v>
       </c>
@@ -7888,7 +8030,7 @@
         <v>0.99860511276450781</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="8">
         <v>3.0000000000000102</v>
       </c>
@@ -7933,7 +8075,7 @@
         <v>0.99899921752338605</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="8">
         <v>3.1000000000000099</v>
       </c>
@@ -7978,7 +8120,7 @@
         <v>0.99928863603135465</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="8">
         <v>3.2000000000000099</v>
       </c>
@@ -8023,7 +8165,7 @@
         <v>0.99949906308621428</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="8">
         <v>3.30000000000001</v>
       </c>
@@ -8068,7 +8210,7 @@
         <v>0.99965053688166206</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="8">
         <v>3.4000000000000101</v>
       </c>
@@ -8113,7 +8255,7 @@
         <v>0.99975848972643222</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="8">
         <v>3.5000000000000102</v>
       </c>
@@ -8158,7 +8300,7 @@
         <v>0.99983466101927987</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="8">
         <v>3.6000000000000099</v>
       </c>
@@ -8203,7 +8345,7 @@
         <v>0.99988787297401771</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
@@ -8215,7 +8357,7 @@
       <c r="J77" s="10"/>
       <c r="K77" s="10"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -8235,25 +8377,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B642E4E-4CEB-4761-98FC-68FA36484AD6}">
-  <dimension ref="B3:R125"/>
+  <dimension ref="B3:Y125"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="6"/>
-    <col min="2" max="2" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.7109375" style="6"/>
-    <col min="6" max="8" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="6"/>
-    <col min="10" max="10" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="6"/>
+    <col min="1" max="1" width="8.7265625" style="6"/>
+    <col min="2" max="2" width="14.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7265625" style="6"/>
+    <col min="6" max="8" width="11.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="6"/>
+    <col min="10" max="10" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C3" s="6" t="s">
         <v>246</v>
       </c>
@@ -8264,7 +8406,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>249</v>
       </c>
@@ -8286,7 +8428,7 @@
         <v>0.85400199890136719</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C6" s="6" t="s">
         <v>251</v>
       </c>
@@ -8294,7 +8436,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>250</v>
       </c>
@@ -8313,7 +8455,7 @@
         <v>0.7293294335267746</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C9" s="6" t="s">
         <v>253</v>
       </c>
@@ -8327,7 +8469,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
         <v>252</v>
       </c>
@@ -8348,7 +8490,7 @@
         <v>0.48351648351648341</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
         <v>262</v>
       </c>
@@ -8361,7 +8503,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D17" s="6" t="s">
         <v>258</v>
       </c>
@@ -8369,7 +8511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D18" s="6" t="s">
         <v>255</v>
       </c>
@@ -8377,7 +8519,7 @@
         <v>12.05</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D19" s="6" t="s">
         <v>256</v>
       </c>
@@ -8403,7 +8545,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D20" s="6" t="s">
         <v>257</v>
       </c>
@@ -8441,7 +8583,7 @@
         <v>9.28818501377352E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="I21" s="6">
         <v>0.02</v>
       </c>
@@ -8472,7 +8614,7 @@
         <v>0.20850836168401488</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D22" s="6" t="s">
         <v>259</v>
       </c>
@@ -8481,7 +8623,7 @@
         <v>4.7790352272812336E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B27" s="6">
         <v>0.1</v>
       </c>
@@ -8495,7 +8637,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B28" s="6">
         <v>0.5</v>
       </c>
@@ -8508,8 +8650,12 @@
       <c r="I28" s="6">
         <v>1.76</v>
       </c>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M28" s="6">
+        <f>2^10*4^5</f>
+        <v>1048576</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B29" s="6">
         <v>0.4</v>
       </c>
@@ -8517,7 +8663,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
       <c r="H30" s="6">
         <f>H28-H27</f>
         <v>4.7199999999999989</v>
@@ -8527,12 +8673,12 @@
         <v>2.118962010041709</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B31" s="6" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B32" s="6" t="s">
         <v>267</v>
       </c>
@@ -8540,53 +8686,153 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B33" s="6" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="K34" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="L34" s="6">
+        <v>5</v>
+      </c>
+      <c r="M34" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="N34" s="6">
+        <f>M34^2</f>
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.35">
       <c r="H35" s="6">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K35" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="L35" s="6">
+        <v>10</v>
+      </c>
+      <c r="M35" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="N35" s="6">
+        <f>M35^2</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.35">
       <c r="H36" s="6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.35">
       <c r="H37" s="6">
         <v>0.45</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="L38" s="6">
+        <f>SQRT(L35*N34+((1/4)*L34^2/L35)*N35)</f>
+        <v>0.74582169450881497</v>
+      </c>
+      <c r="N38" s="6">
+        <f>L34*SQRT(L35)</f>
+        <v>15.811388300841898</v>
+      </c>
+      <c r="P38" s="6">
+        <f>L38/N38</f>
+        <v>4.7169905660283021E-2</v>
+      </c>
+      <c r="T38" s="6">
+        <v>25</v>
+      </c>
+      <c r="U38" s="6">
+        <f>0.2*SQRT(5)</f>
+        <v>0.44721359549995798</v>
+      </c>
+      <c r="W38" s="6">
+        <v>24</v>
+      </c>
+      <c r="X38" s="6">
+        <f>(W38-T38)/U38</f>
+        <v>-2.2360679774997894</v>
+      </c>
+      <c r="Y38" s="6">
+        <f>_xlfn.NORM.S.DIST(X38,TRUE)</f>
+        <v>1.2673659338734137E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.35">
       <c r="H39" s="6">
         <f>SUM(H35:H38)</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="L40" s="6">
+        <f>SQRT(L35^2/L34^3*N34+4/L34*N35)</f>
+        <v>0.48166378315169184</v>
+      </c>
+      <c r="N40" s="6">
+        <f>2*L35/SQRT(L34)</f>
+        <v>8.9442719099991592</v>
+      </c>
+      <c r="P40" s="6">
+        <f>L40/N40</f>
+        <v>5.3851648071345043E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="L42" s="6">
+        <f>2*SQRT(L34^2*N34+L35^2*N35)</f>
+        <v>10.198039027185569</v>
+      </c>
+      <c r="N42" s="6">
+        <f>L34^2+L35^2</f>
+        <v>125</v>
+      </c>
+      <c r="P42" s="6">
+        <f>L42/N42</f>
+        <v>8.158431221748455E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="K46" s="6">
+        <f>0.2*SQRT(5)</f>
+        <v>0.44721359549995798</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="Q47" s="6">
+        <f>(5.06-5)/0.08</f>
+        <v>0.74999999999999512</v>
+      </c>
+    </row>
+    <row r="119" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E119" s="13"/>
       <c r="F119" s="13"/>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E120" s="13"/>
       <c r="F120" s="13"/>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E121" s="13"/>
       <c r="F121" s="13"/>
     </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E122" s="13"/>
       <c r="F122" s="13"/>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E123" s="13"/>
       <c r="F123" s="13"/>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C125" s="12"/>
     </row>
   </sheetData>

--- a/navidi/Exercises.xlsx
+++ b/navidi/Exercises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\_Work\Statistics\navidi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F36092-B154-4E4D-803B-50E61E84A15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D621A87-99CB-422A-9FF9-E72A266CA867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="38400" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5150" yWindow="2650" windowWidth="38400" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercises" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="298">
   <si>
     <t>2.2 Counting Methods</t>
   </si>
@@ -908,6 +908,54 @@
   </si>
   <si>
     <t>5.2 Confidence Intervals for a Population Mean, Variance Unknown</t>
+  </si>
+  <si>
+    <t>5.11</t>
+  </si>
+  <si>
+    <t>5.12</t>
+  </si>
+  <si>
+    <t>5.13</t>
+  </si>
+  <si>
+    <t>5.14</t>
+  </si>
+  <si>
+    <t>5.15</t>
+  </si>
+  <si>
+    <t>5.16</t>
+  </si>
+  <si>
+    <t>5.17</t>
+  </si>
+  <si>
+    <t>5.18</t>
+  </si>
+  <si>
+    <t>5.19</t>
+  </si>
+  <si>
+    <t>5.20</t>
+  </si>
+  <si>
+    <t>5.21</t>
+  </si>
+  <si>
+    <t>5.3 Confidence Intervals for Proportions</t>
+  </si>
+  <si>
+    <t>5.22</t>
+  </si>
+  <si>
+    <t>5.23</t>
+  </si>
+  <si>
+    <t>5.24</t>
+  </si>
+  <si>
+    <t>5.4 Confidence Intervals for the Difference Between Two Means</t>
   </si>
 </sst>
 </file>
@@ -2184,10 +2232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO88"/>
+  <dimension ref="A1:AO94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="N89" sqref="N89"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="AB75" sqref="AB75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3245,7 +3293,7 @@
       <c r="E30" s="1">
         <v>3</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="4">
         <v>4</v>
       </c>
       <c r="G30" s="1">
@@ -4699,7 +4747,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C81" s="1">
         <v>1</v>
       </c>
@@ -4743,12 +4791,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B82" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C83" s="1">
         <v>1</v>
       </c>
@@ -4840,17 +4888,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B85" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C86" s="1" t="s">
         <v>271</v>
       </c>
@@ -4882,20 +4930,20 @@
         <v>280</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C87" s="1">
         <v>1</v>
       </c>
       <c r="D87" s="1">
         <v>2</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E87" s="4">
         <v>3</v>
       </c>
       <c r="F87" s="1">
         <v>4</v>
       </c>
-      <c r="G87" s="1">
+      <c r="G87" s="4">
         <v>5</v>
       </c>
       <c r="H87" s="1">
@@ -4938,9 +4986,234 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B88" s="3" t="s">
         <v>281</v>
+      </c>
+    </row>
+    <row r="89" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="C89" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="90" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="C90" s="1">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
+        <v>2</v>
+      </c>
+      <c r="E90" s="4">
+        <v>3</v>
+      </c>
+      <c r="F90" s="1">
+        <v>4</v>
+      </c>
+      <c r="G90" s="1">
+        <v>5</v>
+      </c>
+      <c r="H90" s="1">
+        <v>6</v>
+      </c>
+      <c r="I90" s="1">
+        <v>7</v>
+      </c>
+      <c r="J90" s="1">
+        <v>8</v>
+      </c>
+      <c r="K90" s="1">
+        <v>9</v>
+      </c>
+      <c r="L90" s="1">
+        <v>10</v>
+      </c>
+      <c r="M90" s="1">
+        <v>11</v>
+      </c>
+      <c r="N90" s="1">
+        <v>12</v>
+      </c>
+      <c r="O90" s="1">
+        <v>13</v>
+      </c>
+      <c r="P90" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>15</v>
+      </c>
+      <c r="R90" s="1">
+        <v>16</v>
+      </c>
+      <c r="S90" s="1">
+        <v>17</v>
+      </c>
+      <c r="T90" s="1">
+        <v>18</v>
+      </c>
+      <c r="U90" s="1">
+        <v>19</v>
+      </c>
+      <c r="V90" s="1">
+        <v>20</v>
+      </c>
+      <c r="W90" s="1">
+        <v>21</v>
+      </c>
+      <c r="X90" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y90" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z90" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA90" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB90" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC90" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD90" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE90" s="1">
+        <v>29</v>
+      </c>
+      <c r="AF90" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG90" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH90" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI90" s="1">
+        <v>33</v>
+      </c>
+      <c r="AJ90" s="1">
+        <v>34</v>
+      </c>
+      <c r="AK90" s="1">
+        <v>35</v>
+      </c>
+      <c r="AL90" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="B91" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="92" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="C92" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="93" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="C93" s="1">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1">
+        <v>2</v>
+      </c>
+      <c r="E93" s="1">
+        <v>3</v>
+      </c>
+      <c r="F93" s="1">
+        <v>4</v>
+      </c>
+      <c r="G93" s="1">
+        <v>5</v>
+      </c>
+      <c r="H93" s="1">
+        <v>6</v>
+      </c>
+      <c r="I93" s="1">
+        <v>7</v>
+      </c>
+      <c r="J93" s="1">
+        <v>8</v>
+      </c>
+      <c r="K93" s="1">
+        <v>9</v>
+      </c>
+      <c r="L93" s="1">
+        <v>10</v>
+      </c>
+      <c r="M93" s="1">
+        <v>11</v>
+      </c>
+      <c r="N93" s="1">
+        <v>12</v>
+      </c>
+      <c r="O93" s="1">
+        <v>13</v>
+      </c>
+      <c r="P93" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>15</v>
+      </c>
+      <c r="R93" s="1">
+        <v>16</v>
+      </c>
+      <c r="S93" s="1">
+        <v>17</v>
+      </c>
+      <c r="T93" s="1">
+        <v>18</v>
+      </c>
+      <c r="U93" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="B94" s="3" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -4948,7 +5221,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G6:H6 I6:J6 C9:D9 D20:S22 D15:I17 D26:G26 C25:F25 C28:Y28 C39:F39 L36 C42:J42 K50:L50 C53:O53 C56:L56 C59:I59 J59:P59 C62:F62 C65:I65 C71:E71 C77:I77 C80:K80 C68:F68" twoDigitTextYear="1"/>
+    <ignoredError sqref="G6:H6 I6:J6 C9:D9 D20:S22 D15:I17 D26:G26 C25:F25 C28:Y28 C39:F39 L36 C42:J42 K50:L50 C53:O53 C56:L56 C59:I59 J59:P59 C62:F62 C65:I65 C71:E71 C77:I77 C80:K80 C68:F68 E89:M89 C92:E92" twoDigitTextYear="1"/>
     <ignoredError sqref="C26 C15:C17 C20:C22" twoDigitTextYear="1" numberStoredAsText="1"/>
     <ignoredError sqref="C18:C19 C23:C24 AL21 C34:K34 C72 C75:L75" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -4961,7 +5234,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8377,10 +8650,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B642E4E-4CEB-4761-98FC-68FA36484AD6}">
-  <dimension ref="B3:Y125"/>
+  <dimension ref="B3:X125"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q47" sqref="Q47"/>
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8503,7 +8776,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.35">
       <c r="D17" s="6" t="s">
         <v>258</v>
       </c>
@@ -8511,7 +8784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.35">
       <c r="D18" s="6" t="s">
         <v>255</v>
       </c>
@@ -8519,7 +8792,7 @@
         <v>12.05</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.35">
       <c r="D19" s="6" t="s">
         <v>256</v>
       </c>
@@ -8545,7 +8818,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.35">
       <c r="D20" s="6" t="s">
         <v>257</v>
       </c>
@@ -8583,7 +8856,7 @@
         <v>9.28818501377352E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.35">
       <c r="I21" s="6">
         <v>0.02</v>
       </c>
@@ -8614,7 +8887,7 @@
         <v>0.20850836168401488</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.35">
       <c r="D22" s="6" t="s">
         <v>259</v>
       </c>
@@ -8623,7 +8896,13 @@
         <v>4.7790352272812336E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="X25" s="6">
+        <f>1/(1+0.5*0.97/0.99)</f>
+        <v>0.67118644067796618</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B27" s="6">
         <v>0.1</v>
       </c>
@@ -8637,7 +8916,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B28" s="6">
         <v>0.5</v>
       </c>
@@ -8655,7 +8934,7 @@
         <v>1048576</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B29" s="6">
         <v>0.4</v>
       </c>
@@ -8663,7 +8942,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.35">
       <c r="H30" s="6">
         <f>H28-H27</f>
         <v>4.7199999999999989</v>
@@ -8673,12 +8952,12 @@
         <v>2.118962010041709</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B31" s="6" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B32" s="6" t="s">
         <v>267</v>
       </c>
@@ -8686,12 +8965,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B33" s="6" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
       <c r="K34" s="6" t="s">
         <v>258</v>
       </c>
@@ -8706,7 +8985,7 @@
         <v>4.0000000000000008E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.35">
       <c r="H35" s="6">
         <v>0.1</v>
       </c>
@@ -8724,17 +9003,17 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.35">
       <c r="H36" s="6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.35">
       <c r="H37" s="6">
         <v>0.45</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.35">
       <c r="L38" s="6">
         <f>SQRT(L35*N34+((1/4)*L34^2/L35)*N35)</f>
         <v>0.74582169450881497</v>
@@ -8747,32 +9026,20 @@
         <f>L38/N38</f>
         <v>4.7169905660283021E-2</v>
       </c>
-      <c r="T38" s="6">
-        <v>25</v>
-      </c>
-      <c r="U38" s="6">
-        <f>0.2*SQRT(5)</f>
-        <v>0.44721359549995798</v>
-      </c>
-      <c r="W38" s="6">
-        <v>24</v>
-      </c>
-      <c r="X38" s="6">
-        <f>(W38-T38)/U38</f>
-        <v>-2.2360679774997894</v>
-      </c>
-      <c r="Y38" s="6">
-        <f>_xlfn.NORM.S.DIST(X38,TRUE)</f>
-        <v>1.2673659338734137E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="R38" s="6">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.35">
       <c r="H39" s="6">
         <f>SUM(H35:H38)</f>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="R39" s="6">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.35">
       <c r="L40" s="6">
         <f>SQRT(L35^2/L34^3*N34+4/L34*N35)</f>
         <v>0.48166378315169184</v>
@@ -8785,8 +9052,18 @@
         <f>L40/N40</f>
         <v>5.3851648071345043E-2</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="R40" s="6">
+        <f>R38+R39</f>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="R41" s="6">
+        <f>R40/2</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.35">
       <c r="L42" s="6">
         <f>2*SQRT(L34^2*N34+L35^2*N35)</f>
         <v>10.198039027185569</v>
@@ -8799,14 +9076,29 @@
         <f>L42/N42</f>
         <v>8.158431221748455E-2</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="R42" s="6">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="R43" s="6">
+        <f>R42-R41</f>
+        <v>7.0000000000000062E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="R44" s="6">
+        <f>R43*SQRT(114)/1.96</f>
+        <v>0.38132422328683291</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.35">
       <c r="K46" s="6">
         <f>0.2*SQRT(5)</f>
         <v>0.44721359549995798</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.35">
       <c r="Q47" s="6">
         <f>(5.06-5)/0.08</f>
         <v>0.74999999999999512</v>

--- a/navidi/Exercises.xlsx
+++ b/navidi/Exercises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\_Work\Statistics\navidi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D621A87-99CB-422A-9FF9-E72A266CA867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69056B2-F53F-492D-8D6D-804AF95415A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5150" yWindow="2650" windowWidth="38400" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18680" yWindow="2510" windowWidth="38400" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercises" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="304">
   <si>
     <t>2.2 Counting Methods</t>
   </si>
@@ -956,6 +956,24 @@
   </si>
   <si>
     <t>5.4 Confidence Intervals for the Difference Between Two Means</t>
+  </si>
+  <si>
+    <t>5.25</t>
+  </si>
+  <si>
+    <t>5.26</t>
+  </si>
+  <si>
+    <t>5.27</t>
+  </si>
+  <si>
+    <t>5.28</t>
+  </si>
+  <si>
+    <t>5.29</t>
+  </si>
+  <si>
+    <t>5.5 Confidence Intervals for the Difference Between Two Proportions</t>
   </si>
 </sst>
 </file>
@@ -2232,10 +2250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO94"/>
+  <dimension ref="A1:AO97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="AB75" sqref="AB75"/>
+      <selection activeCell="J108" sqref="J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4747,7 +4765,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C81" s="1">
         <v>1</v>
       </c>
@@ -4791,12 +4809,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B82" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C83" s="1">
         <v>1</v>
       </c>
@@ -4888,17 +4906,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B85" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C86" s="1" t="s">
         <v>271</v>
       </c>
@@ -4930,7 +4948,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C87" s="1">
         <v>1</v>
       </c>
@@ -4986,12 +5004,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B88" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C89" s="1" t="s">
         <v>282</v>
       </c>
@@ -5026,7 +5044,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C90" s="1">
         <v>1</v>
       </c>
@@ -5136,12 +5154,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B91" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C92" s="1" t="s">
         <v>294</v>
       </c>
@@ -5152,7 +5170,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C93" s="1">
         <v>1</v>
       </c>
@@ -5211,9 +5229,150 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B94" s="3" t="s">
         <v>297</v>
+      </c>
+    </row>
+    <row r="95" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="C95" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="96" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="C96" s="1">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1">
+        <v>2</v>
+      </c>
+      <c r="E96" s="1">
+        <v>3</v>
+      </c>
+      <c r="F96" s="1">
+        <v>4</v>
+      </c>
+      <c r="G96" s="1">
+        <v>5</v>
+      </c>
+      <c r="H96" s="1">
+        <v>6</v>
+      </c>
+      <c r="I96" s="1">
+        <v>7</v>
+      </c>
+      <c r="J96" s="1">
+        <v>8</v>
+      </c>
+      <c r="K96" s="1">
+        <v>9</v>
+      </c>
+      <c r="L96" s="1">
+        <v>10</v>
+      </c>
+      <c r="M96" s="1">
+        <v>11</v>
+      </c>
+      <c r="N96" s="1">
+        <v>12</v>
+      </c>
+      <c r="O96" s="1">
+        <v>13</v>
+      </c>
+      <c r="P96" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>15</v>
+      </c>
+      <c r="R96" s="1">
+        <v>16</v>
+      </c>
+      <c r="S96" s="1">
+        <v>17</v>
+      </c>
+      <c r="T96" s="1">
+        <v>18</v>
+      </c>
+      <c r="U96" s="1">
+        <v>19</v>
+      </c>
+      <c r="V96" s="1">
+        <v>20</v>
+      </c>
+      <c r="W96" s="1">
+        <v>21</v>
+      </c>
+      <c r="X96" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y96" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z96" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA96" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB96" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC96" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD96" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE96" s="1">
+        <v>29</v>
+      </c>
+      <c r="AF96" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG96" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH96" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI96" s="1">
+        <v>33</v>
+      </c>
+      <c r="AJ96" s="1">
+        <v>34</v>
+      </c>
+      <c r="AK96" s="1">
+        <v>35</v>
+      </c>
+      <c r="AL96" s="1">
+        <v>36</v>
+      </c>
+      <c r="AM96" s="1">
+        <v>37</v>
+      </c>
+      <c r="AN96" s="1">
+        <v>38</v>
+      </c>
+      <c r="AO96" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B97" s="3" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -5221,7 +5380,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G6:H6 I6:J6 C9:D9 D20:S22 D15:I17 D26:G26 C25:F25 C28:Y28 C39:F39 L36 C42:J42 K50:L50 C53:O53 C56:L56 C59:I59 J59:P59 C62:F62 C65:I65 C71:E71 C77:I77 C80:K80 C68:F68 E89:M89 C92:E92" twoDigitTextYear="1"/>
+    <ignoredError sqref="G6:H6 I6:J6 C9:D9 D20:S22 D15:I17 D26:G26 C25:F25 C28:Y28 C39:F39 L36 C42:J42 K50:L50 C53:O53 C56:L56 C59:I59 J59:P59 C62:F62 C65:I65 C71:E71 C77:I77 C80:K80 C68:F68 E89:M89 C92:E92 C95:G95" twoDigitTextYear="1"/>
     <ignoredError sqref="C26 C15:C17 C20:C22" twoDigitTextYear="1" numberStoredAsText="1"/>
     <ignoredError sqref="C18:C19 C23:C24 AL21 C34:K34 C72 C75:L75" numberStoredAsText="1"/>
   </ignoredErrors>
